--- a/output/fit_clients/fit_round_369.xlsx
+++ b/output/fit_clients/fit_round_369.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2425312292.634927</v>
+        <v>1887706209.347326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0714896474252236</v>
+        <v>0.1089871754951457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04331049448831466</v>
+        <v>0.02809018990251179</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1212656199.161609</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2438745948.074279</v>
+        <v>2116662155.611237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1748841301808389</v>
+        <v>0.1399133220502379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0312766002947311</v>
+        <v>0.03893247139953243</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1219373082.060326</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3864992612.197557</v>
+        <v>3531499830.906838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1628058117318177</v>
+        <v>0.1549401847140594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0293250897335555</v>
+        <v>0.0280078027210725</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>133</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1932496310.720423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2589781584.963964</v>
+        <v>3208421726.804657</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08495238214843095</v>
+        <v>0.09297486346592415</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03247660605278581</v>
+        <v>0.04861306607055769</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1294890889.457036</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2837946813.308583</v>
+        <v>2595621897.460464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1410918441352645</v>
+        <v>0.1412615173603496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0536065413613746</v>
+        <v>0.05154466072956295</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1418973345.576887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2524190673.06805</v>
+        <v>2084485314.515908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0833341205301729</v>
+        <v>0.08008068381332217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04886453759118916</v>
+        <v>0.0486308507051559</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1262095347.248726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2882331868.096412</v>
+        <v>3431517117.248095</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1462286909137883</v>
+        <v>0.1485220016848093</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02382258768680159</v>
+        <v>0.03297739285251173</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1441165979.542007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1520303960.055071</v>
+        <v>2281611027.44506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1254602868210077</v>
+        <v>0.1204854639335457</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0264126329484526</v>
+        <v>0.03212598805079989</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>760152073.2000582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5395850877.17736</v>
+        <v>4448436989.23726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1911539977379108</v>
+        <v>0.1631876034436014</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04054848782568357</v>
+        <v>0.03807836154454055</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>155</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2697925568.547184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3370214981.742277</v>
+        <v>2686745371.209243</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1472595473000707</v>
+        <v>0.1764256959835393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04638692127141476</v>
+        <v>0.04626213999009521</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>152</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1685107459.625599</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2548150624.730273</v>
+        <v>2501901328.596127</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1446018650862173</v>
+        <v>0.1671934970724386</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950900087241417</v>
+        <v>0.04956907951936191</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1274075288.995232</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4662407225.715923</v>
+        <v>4198468043.243498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09120232888832919</v>
+        <v>0.07168808173672375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0221289274977662</v>
+        <v>0.02724524036368791</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>124</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2331203634.1544</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3567854344.540356</v>
+        <v>2548666073.45886</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1873588691238805</v>
+        <v>0.1694481346182552</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02852898927823496</v>
+        <v>0.03841908254864432</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1783927165.598717</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1829885549.196359</v>
+        <v>1260441297.844818</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09193176855235646</v>
+        <v>0.09401504519742265</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04639123789985969</v>
+        <v>0.04905831805537037</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>914942934.8976848</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2475198904.638219</v>
+        <v>2643525495.330282</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071270333984057</v>
+        <v>0.08079137707309288</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03735533945079739</v>
+        <v>0.0398555758647999</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1237599485.364605</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3552191690.417194</v>
+        <v>3237481603.960867</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1482081337880989</v>
+        <v>0.1268472610490318</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03305345782184829</v>
+        <v>0.03240006874700015</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>108</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1776095901.973118</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2526903554.921366</v>
+        <v>2468360828.797505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1491218202270872</v>
+        <v>0.126648160037846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02533302028573078</v>
+        <v>0.03346956561192936</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>121</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1263451841.988606</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>830075778.1522623</v>
+        <v>1266597415.581697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1258741243306454</v>
+        <v>0.1611127519091932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02396075729121436</v>
+        <v>0.0264387702754388</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>415037876.9543179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2014761963.931278</v>
+        <v>2049860372.640303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1125092231313356</v>
+        <v>0.1156534158721464</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02474109353104681</v>
+        <v>0.02091624211050902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1007381006.75735</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2503428745.184236</v>
+        <v>2069183640.695392</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06983975062798793</v>
+        <v>0.08281797812620817</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03503561688830485</v>
+        <v>0.04105195898746512</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1251714360.378242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2970058864.675588</v>
+        <v>3624445134.488863</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1263218949161202</v>
+        <v>0.1109233487890901</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0345742869334261</v>
+        <v>0.0422581515222889</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1485029495.668678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168003463.944561</v>
+        <v>1265221991.612575</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1775156963756811</v>
+        <v>0.1120837565471954</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04224989885094875</v>
+        <v>0.04927131741423114</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584001773.848655</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3240856410.337034</v>
+        <v>3556106780.552815</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12407096765925</v>
+        <v>0.1014748029261474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03207263818231822</v>
+        <v>0.0265950582177174</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>108</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1620428224.223866</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>898788407.3229257</v>
+        <v>1364409168.335964</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08158763678653387</v>
+        <v>0.08366188874632417</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02690581916749124</v>
+        <v>0.02496030801324326</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>449394290.9384781</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202647060.702597</v>
+        <v>989583134.4163285</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121037508530949</v>
+        <v>0.1238790790698358</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02686060030044961</v>
+        <v>0.03427004052203029</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601323552.016386</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3425673170.484553</v>
+        <v>3367327890.55379</v>
       </c>
       <c r="F27" t="n">
-        <v>0.135900447796384</v>
+        <v>0.1273185520011151</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02150622478194942</v>
+        <v>0.01925487414604822</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1712836623.912072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3619620022.867737</v>
+        <v>3396280946.093819</v>
       </c>
       <c r="F28" t="n">
-        <v>0.101384555134536</v>
+        <v>0.1492466722998038</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03417389554652973</v>
+        <v>0.03391034845775852</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1809810076.481485</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3856193061.820618</v>
+        <v>5142330057.900117</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1209761652332659</v>
+        <v>0.1416114351843589</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04212901995909835</v>
+        <v>0.03777835091436409</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>163</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1928096557.714505</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1859747088.01115</v>
+        <v>2237649169.354577</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373110994900501</v>
+        <v>0.09617861134511475</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03930909614565804</v>
+        <v>0.02752172478943776</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>929873565.4764936</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1425688012.951516</v>
+        <v>1253602876.967307</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1010683553260063</v>
+        <v>0.06840818945266372</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05072600636610224</v>
+        <v>0.03852836299280741</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>712843904.8351625</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157437020.54904</v>
+        <v>1711728092.076519</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08230422056537498</v>
+        <v>0.07621484799550846</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03170659751644697</v>
+        <v>0.03452261832454753</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>578718507.6928028</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1992934668.778224</v>
+        <v>2789906485.4327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1286724128603653</v>
+        <v>0.1510054170031933</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05917621440097665</v>
+        <v>0.05842068074707503</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>996467415.7764133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1073338738.163841</v>
+        <v>1521731595.535152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10639014121996</v>
+        <v>0.119351245251342</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01915347527240563</v>
+        <v>0.0243807064949064</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>536669394.9203977</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>994876942.15451</v>
+        <v>1108035979.701983</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056333517077394</v>
+        <v>0.07844497029435525</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03612503446850068</v>
+        <v>0.04390785650691762</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497438490.8050405</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2288963445.945447</v>
+        <v>2496860299.848052</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1247630537422395</v>
+        <v>0.1437697065809915</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01886107467484929</v>
+        <v>0.02499007021426035</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1144481761.87123</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2671402984.869499</v>
+        <v>2407331088.700655</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066709341465918</v>
+        <v>0.09470311058087516</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03333074677853141</v>
+        <v>0.04175402879060481</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1335701612.074127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1726284817.242002</v>
+        <v>1630601505.586096</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09526506626429629</v>
+        <v>0.09575224417173681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03121772913460518</v>
+        <v>0.02484118736531638</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>863142425.9209875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1828270952.870469</v>
+        <v>1764188585.20682</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1912014911621593</v>
+        <v>0.1305262326399508</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02476041965980316</v>
+        <v>0.02689050808802813</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>914135497.0816042</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1597587704.244672</v>
+        <v>1193264023.210144</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1200741758337722</v>
+        <v>0.1118472894787775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05014112823673361</v>
+        <v>0.05492443350254194</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>798793793.8889525</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2694477380.174875</v>
+        <v>2015219330.576664</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1130901603390035</v>
+        <v>0.1388429101742092</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03032772701477987</v>
+        <v>0.03528464513846685</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>94</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1347238696.386195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4026461271.086999</v>
+        <v>3215944048.678603</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09984729188051694</v>
+        <v>0.09812904744927296</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0417532316398333</v>
+        <v>0.04195976019006611</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2013230666.673462</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2391381196.87833</v>
+        <v>1874196653.657606</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2025984003990485</v>
+        <v>0.12483157544512</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02059211431548584</v>
+        <v>0.01651879750837849</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1195690658.019901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1769635184.312821</v>
+        <v>2035108497.000901</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09961701001141113</v>
+        <v>0.09577640078412963</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03705419360710675</v>
+        <v>0.03148549839974602</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>884817652.5406222</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2231830936.752369</v>
+        <v>1961694835.123758</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1845881776166554</v>
+        <v>0.1309161861613729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04483227096462478</v>
+        <v>0.03823049511672397</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1115915482.622099</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3924032794.920041</v>
+        <v>4291621423.907261</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1529564721469793</v>
+        <v>0.1572212129729575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0399605163284432</v>
+        <v>0.06130509890119445</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1962016362.650825</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4011091166.736472</v>
+        <v>3315623612.238266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.178316091819264</v>
+        <v>0.1312048550904172</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03853175644679764</v>
+        <v>0.05195666222732879</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2005545583.150509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4151923308.714348</v>
+        <v>3662788692.335466</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06650629259850295</v>
+        <v>0.08953984188388524</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03442216412152375</v>
+        <v>0.03002483726677318</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2075961679.887339</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1907582410.07983</v>
+        <v>1294304277.465017</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1446180252402344</v>
+        <v>0.191722273258576</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04412613792418118</v>
+        <v>0.03069566881170131</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>953791173.719661</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3822600186.190398</v>
+        <v>3503514633.616434</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1306245709274523</v>
+        <v>0.155246721033053</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05194779519020099</v>
+        <v>0.05263539207250224</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>126</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1911300094.41588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1503960689.85589</v>
+        <v>1153650630.046621</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1894388609957736</v>
+        <v>0.1584252453179753</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04899518337703784</v>
+        <v>0.04192521642171585</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>751980347.2281586</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5293722655.388401</v>
+        <v>3829491023.660493</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1263094492654605</v>
+        <v>0.1264414058234687</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05839601992140079</v>
+        <v>0.05629399433330037</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>152</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2646861308.04147</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3092853377.205548</v>
+        <v>2975113005.358496</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1735020760758321</v>
+        <v>0.146887788022605</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03337519720390979</v>
+        <v>0.02477324313406222</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>105</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1546426714.639544</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4116136659.500253</v>
+        <v>3939643265.873337</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1198776274409807</v>
+        <v>0.1514724236954834</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03476154839462064</v>
+        <v>0.0453281557224688</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2058068402.953286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3357797689.461701</v>
+        <v>4950201381.316301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1790753904724533</v>
+        <v>0.1357133743722562</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02539463845412155</v>
+        <v>0.03053949021364548</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>103</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1678898791.298001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1680922978.215918</v>
+        <v>1518798808.570857</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1062197158640147</v>
+        <v>0.1058451763265395</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03986813091178416</v>
+        <v>0.03864501493782744</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>840461504.5664455</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3094847944.193467</v>
+        <v>3575728095.746516</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1754339537458767</v>
+        <v>0.1379542870815767</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01706904670258907</v>
+        <v>0.0174544950738573</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1547423984.475577</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1163816659.192986</v>
+        <v>1363126878.737131</v>
       </c>
       <c r="F58" t="n">
-        <v>0.183203360000435</v>
+        <v>0.1798566836957524</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03812436366830755</v>
+        <v>0.03341312777513319</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>581908391.4150629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3452289502.991347</v>
+        <v>4259281583.537816</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1310457253328027</v>
+        <v>0.1108108015813856</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04779568225122329</v>
+        <v>0.03192026868516579</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1726144753.877448</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3070232094.029231</v>
+        <v>2385748698.207354</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1933415285034027</v>
+        <v>0.1851433659267662</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02560625901320993</v>
+        <v>0.02845689915524563</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>116</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1535116124.741294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2574850171.85942</v>
+        <v>2295757618.930046</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1453166056381349</v>
+        <v>0.1708842450815008</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02530136984705767</v>
+        <v>0.02545921506079314</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>127</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1287425106.50382</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1442705689.232429</v>
+        <v>1976281755.377345</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1375143368472989</v>
+        <v>0.1312123732783833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04596034651008785</v>
+        <v>0.04811730295766211</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>721352819.086399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4498086532.043689</v>
+        <v>5152678845.043724</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019934480603178</v>
+        <v>0.07436535355215719</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04295403605314368</v>
+        <v>0.04173218237465781</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2249043306.172249</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3683730303.583944</v>
+        <v>4211638165.839053</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1454196894228615</v>
+        <v>0.1901082698064183</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03498375823312099</v>
+        <v>0.03276689413464179</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1841865165.41704</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4049028011.154387</v>
+        <v>4684709691.900882</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1478591243470501</v>
+        <v>0.1300312523974392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0279777700409568</v>
+        <v>0.02149638848404404</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2024514021.25133</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4139145281.621755</v>
+        <v>3588349299.214338</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1193347353036228</v>
+        <v>0.1177668499480087</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03139337387804371</v>
+        <v>0.03824826018172358</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2069572621.861007</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2249886151.72925</v>
+        <v>3162475603.910892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0956059011198921</v>
+        <v>0.07935497372607493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0358370095493884</v>
+        <v>0.05071443215095489</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>117</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1124943157.671112</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5729075830.498323</v>
+        <v>4210413659.098049</v>
       </c>
       <c r="F68" t="n">
-        <v>0.14252890148315</v>
+        <v>0.1030125939945788</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04541405798931694</v>
+        <v>0.04873263501949031</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2864538015.826155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1866361630.466477</v>
+        <v>2212610217.623976</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1277096121243185</v>
+        <v>0.1421736258661246</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05648780596197044</v>
+        <v>0.04101698400698167</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>933180802.9003588</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3588283089.351398</v>
+        <v>3184043749.513109</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09924877203196224</v>
+        <v>0.0838698746002441</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03002855313336152</v>
+        <v>0.03472903460767553</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>105</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1794141559.939978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4090021151.664037</v>
+        <v>3543166895.472094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.169081560315068</v>
+        <v>0.1121348140179116</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02394039243114527</v>
+        <v>0.03192768279383895</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2045010613.590563</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1735279132.138438</v>
+        <v>1693285899.57831</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07389676642180931</v>
+        <v>0.1023054542604529</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04696702492763614</v>
+        <v>0.05195663840059148</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>867639555.1360695</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2269105706.98241</v>
+        <v>2406897225.23843</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08089365005283992</v>
+        <v>0.08699570744325173</v>
       </c>
       <c r="G73" t="n">
-        <v>0.046767088943214</v>
+        <v>0.05045339801816429</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>140</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1134552916.428675</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2704687418.744</v>
+        <v>2851024135.087997</v>
       </c>
       <c r="F74" t="n">
-        <v>0.129433278734266</v>
+        <v>0.1366309742744178</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02635450783690639</v>
+        <v>0.03231062726331422</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>126</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1352343800.32558</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2244783190.806807</v>
+        <v>1890382594.633133</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1047442674454429</v>
+        <v>0.1182018243744049</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02708883192452074</v>
+        <v>0.03367263199131761</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1122391536.650655</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3479127183.835884</v>
+        <v>4028705609.830974</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09279243827965802</v>
+        <v>0.1055783866372137</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03049508844187674</v>
+        <v>0.02519169709350269</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1739563554.828709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1703871013.686444</v>
+        <v>1752502832.496253</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306325630434171</v>
+        <v>0.136107253346809</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03041535010886407</v>
+        <v>0.0303469989782132</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>851935524.6113793</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4706450181.510332</v>
+        <v>3515970758.381747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08548532412210345</v>
+        <v>0.1007727882991343</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05082519386292698</v>
+        <v>0.03820160810841964</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>128</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2353225005.95072</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1331014946.699582</v>
+        <v>1863169168.854784</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1581266936831382</v>
+        <v>0.1628582857318845</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03380485927470298</v>
+        <v>0.0362546064160672</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>665507478.019425</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4925916207.034057</v>
+        <v>3465553693.479747</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07902396892856546</v>
+        <v>0.08301369799465737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02437356841722007</v>
+        <v>0.02456196329610573</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2462958149.0495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4771698682.930564</v>
+        <v>4419233237.989552</v>
       </c>
       <c r="F81" t="n">
-        <v>0.13371386714576</v>
+        <v>0.1255680782477844</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02604483328263029</v>
+        <v>0.02674283499841881</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>88</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2385849333.350924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5544002928.699233</v>
+        <v>3828000613.772533</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1551206457083229</v>
+        <v>0.212139130669159</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02024814064560389</v>
+        <v>0.02047432520575375</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>129</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2772001417.949307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2474703518.226196</v>
+        <v>1884655643.791529</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1441180818393055</v>
+        <v>0.09792526278892744</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03959661860981548</v>
+        <v>0.03254028039910695</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1237351803.518984</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2321761687.842796</v>
+        <v>2381221587.038894</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1151941605490584</v>
+        <v>0.08440307810496228</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03575495159944584</v>
+        <v>0.03852700735265868</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1160880801.8641</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2592896394.781782</v>
+        <v>2751620568.46827</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1342072921955894</v>
+        <v>0.136597655514517</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05185142837879979</v>
+        <v>0.04559254823961392</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>138</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1296448212.596899</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743427715.940516</v>
+        <v>2076777544.009919</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1400235420758894</v>
+        <v>0.1153403858726144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02729596630573077</v>
+        <v>0.01706741526251651</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>49</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1371713988.972896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1456227467.264616</v>
+        <v>1465360451.904106</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1167410874582624</v>
+        <v>0.1830282495967401</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02909414656104813</v>
+        <v>0.03885743337836491</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>728113854.8893124</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3575476333.63505</v>
+        <v>2411346630.024555</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1272415330489812</v>
+        <v>0.1209245984519082</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03381509286093624</v>
+        <v>0.03680473410972625</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>147</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1787738254.148455</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3432297779.250744</v>
+        <v>2341494695.582271</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1207307338298861</v>
+        <v>0.1222656692800897</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02673718244814295</v>
+        <v>0.04061556241846884</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>124</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1716148896.057251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2165303474.533873</v>
+        <v>1959130450.763886</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0872126687317038</v>
+        <v>0.0922119471608033</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04474927076197964</v>
+        <v>0.03561032968907146</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1082651837.749092</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1423877902.623487</v>
+        <v>1426542856.239791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1194762507200262</v>
+        <v>0.1237249487890872</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04822394237857289</v>
+        <v>0.05783097747358903</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>711939000.3884822</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2701294204.154508</v>
+        <v>2084540058.599694</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06998336757120269</v>
+        <v>0.06942059533365054</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04721775339452493</v>
+        <v>0.04752424570744354</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>103</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1350647101.236775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3104099858.432686</v>
+        <v>4195483272.513156</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1153328134034184</v>
+        <v>0.09155541725477855</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04309346836645407</v>
+        <v>0.05428015406591696</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1552049987.791651</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2415461960.490032</v>
+        <v>1982138231.629683</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125267108045624</v>
+        <v>0.1662181902485504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04200067864350347</v>
+        <v>0.03140644381399957</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1207731032.693964</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2512278227.01299</v>
+        <v>2002475819.778648</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1267945418385008</v>
+        <v>0.09809860306653544</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04036753076655071</v>
+        <v>0.03508505503317956</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1256139148.706312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2324732481.910353</v>
+        <v>1767088726.310097</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08749543170597249</v>
+        <v>0.124001100041914</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03464259658204294</v>
+        <v>0.03374096351198221</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1162366193.28488</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3868704847.670723</v>
+        <v>4144985630.119754</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1435627363522305</v>
+        <v>0.1204646026652575</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01882890070086122</v>
+        <v>0.02140469317659183</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1934352469.662152</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3507369740.381714</v>
+        <v>3664763625.486153</v>
       </c>
       <c r="F98" t="n">
-        <v>0.103335655128801</v>
+        <v>0.1190007039964605</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02904556958805166</v>
+        <v>0.02013932899895922</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>98</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1753684889.334919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3372627567.122345</v>
+        <v>2940584631.418209</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1408765406258245</v>
+        <v>0.1067080279323603</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02371322010138559</v>
+        <v>0.03199739085079127</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1686313796.505338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2917334621.953283</v>
+        <v>4109958868.670143</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1741262164506055</v>
+        <v>0.1414651569678182</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02095370906563769</v>
+        <v>0.02580245822244834</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1458667295.239074</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3198931091.336867</v>
+        <v>3321940852.635389</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1536622435086172</v>
+        <v>0.190126550432091</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03549976944386005</v>
+        <v>0.04908013488670702</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>150</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1599465661.000562</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_369.xlsx
+++ b/output/fit_clients/fit_round_369.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1887706209.347326</v>
+        <v>2414169145.968634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1089871754951457</v>
+        <v>0.07221497669716655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02809018990251179</v>
+        <v>0.04354499043062748</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2116662155.611237</v>
+        <v>2267939832.157712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1399133220502379</v>
+        <v>0.1519239886950641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03893247139953243</v>
+        <v>0.03297487584090204</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3531499830.906838</v>
+        <v>3543297018.381761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1549401847140594</v>
+        <v>0.111449552900373</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0280078027210725</v>
+        <v>0.02880948202876027</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3208421726.804657</v>
+        <v>3535608757.994667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09297486346592415</v>
+        <v>0.08008207663321679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04861306607055769</v>
+        <v>0.03874087920816148</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2595621897.460464</v>
+        <v>2807868841.255666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1412615173603496</v>
+        <v>0.1074624429384803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05154466072956295</v>
+        <v>0.04002127877685663</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2084485314.515908</v>
+        <v>2890013577.054323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08008068381332217</v>
+        <v>0.0811169320916547</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0486308507051559</v>
+        <v>0.03924806499734452</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3431517117.248095</v>
+        <v>3267540191.474187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1485220016848093</v>
+        <v>0.1974389815745364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03297739285251173</v>
+        <v>0.03001976023576199</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2281611027.44506</v>
+        <v>1867182452.429199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1204854639335457</v>
+        <v>0.1376588430447374</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03212598805079989</v>
+        <v>0.026012224693695</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4448436989.23726</v>
+        <v>3757776901.294284</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1631876034436014</v>
+        <v>0.207171716061589</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03807836154454055</v>
+        <v>0.04986458045088644</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2686745371.209243</v>
+        <v>3866942710.057903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1764256959835393</v>
+        <v>0.1447477254312557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04626213999009521</v>
+        <v>0.0389184062087353</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2501901328.596127</v>
+        <v>2834309367.20478</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1671934970724386</v>
+        <v>0.1769138871928778</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04956907951936191</v>
+        <v>0.04599612277427342</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4198468043.243498</v>
+        <v>4534303904.600588</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07168808173672375</v>
+        <v>0.07080759341828836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02724524036368791</v>
+        <v>0.02473102149286293</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2548666073.45886</v>
+        <v>2995060631.303082</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1694481346182552</v>
+        <v>0.1798115786090015</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03841908254864432</v>
+        <v>0.0411820834666328</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1260441297.844818</v>
+        <v>1516797443.268907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09401504519742265</v>
+        <v>0.09658543734005123</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04905831805537037</v>
+        <v>0.03642267899145985</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2643525495.330282</v>
+        <v>2661572512.697015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08079137707309288</v>
+        <v>0.07416375904363141</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0398555758647999</v>
+        <v>0.04311808247337327</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3237481603.960867</v>
+        <v>3875091274.135001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1268472610490318</v>
+        <v>0.1274789220584308</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03240006874700015</v>
+        <v>0.05135271882203342</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2468360828.797505</v>
+        <v>2996927581.024078</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126648160037846</v>
+        <v>0.1710237764489301</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03346956561192936</v>
+        <v>0.02718066427916434</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1266597415.581697</v>
+        <v>1279499415.080278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1611127519091932</v>
+        <v>0.1232178996042592</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0264387702754388</v>
+        <v>0.02612655849383523</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2049860372.640303</v>
+        <v>2727367848.202495</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156534158721464</v>
+        <v>0.0974519272537933</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02091624211050902</v>
+        <v>0.02585540028885593</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2069183640.695392</v>
+        <v>2193529474.486067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08281797812620817</v>
+        <v>0.08693215440775648</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04105195898746512</v>
+        <v>0.04212273113878493</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3624445134.488863</v>
+        <v>3667280011.048167</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1109233487890901</v>
+        <v>0.1128331564858926</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0422581515222889</v>
+        <v>0.03707345067644555</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1265221991.612575</v>
+        <v>1214144300.956289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1120837565471954</v>
+        <v>0.1789639136962128</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04927131741423114</v>
+        <v>0.05011908435858936</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3556106780.552815</v>
+        <v>2550873934.07898</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1014748029261474</v>
+        <v>0.1167459879421807</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0265950582177174</v>
+        <v>0.02618001959274015</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1364409168.335964</v>
+        <v>1236123598.257837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08366188874632417</v>
+        <v>0.07491225182479089</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02496030801324326</v>
+        <v>0.02447230657221868</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>989583134.4163285</v>
+        <v>983464272.9115855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1238790790698358</v>
+        <v>0.1159554169518599</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03427004052203029</v>
+        <v>0.02600706718085546</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3367327890.55379</v>
+        <v>3559595895.700003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1273185520011151</v>
+        <v>0.1476779085332203</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01925487414604822</v>
+        <v>0.02665889336855893</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3396280946.093819</v>
+        <v>3051544104.382631</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1492466722998038</v>
+        <v>0.1362875010102819</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03391034845775852</v>
+        <v>0.03170067180146644</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5142330057.900117</v>
+        <v>3894589539.351131</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1416114351843589</v>
+        <v>0.147974462499225</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03777835091436409</v>
+        <v>0.02909488087857699</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2237649169.354577</v>
+        <v>1528933262.446362</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09617861134511475</v>
+        <v>0.1052560578601491</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02752172478943776</v>
+        <v>0.03630222753037016</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1253602876.967307</v>
+        <v>1460192465.712483</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06840818945266372</v>
+        <v>0.09467263303246662</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03852836299280741</v>
+        <v>0.04392919610751256</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1711728092.076519</v>
+        <v>1159148632.023727</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07621484799550846</v>
+        <v>0.07805718575375263</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03452261832454753</v>
+        <v>0.02523587356982238</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2789906485.4327</v>
+        <v>1893949851.848851</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1510054170031933</v>
+        <v>0.139279540376613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05842068074707503</v>
+        <v>0.03736334136150913</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1521731595.535152</v>
+        <v>1263068384.269417</v>
       </c>
       <c r="F34" t="n">
-        <v>0.119351245251342</v>
+        <v>0.08500884179399749</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0243807064949064</v>
+        <v>0.01912488021332743</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1108035979.701983</v>
+        <v>848954969.7412057</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07844497029435525</v>
+        <v>0.09571633862394752</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04390785650691762</v>
+        <v>0.02924286045289966</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2496860299.848052</v>
+        <v>1967586750.121045</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1437697065809915</v>
+        <v>0.1105386092341602</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02499007021426035</v>
+        <v>0.0212906028967629</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2407331088.700655</v>
+        <v>2483556082.856688</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09470311058087516</v>
+        <v>0.1092056290253645</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04175402879060481</v>
+        <v>0.03945072119973777</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1630601505.586096</v>
+        <v>2123962373.415092</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09575224417173681</v>
+        <v>0.1113935809854705</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02484118736531638</v>
+        <v>0.03293702378113218</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1764188585.20682</v>
+        <v>1572610440.043814</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1305262326399508</v>
+        <v>0.1633691814443554</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02689050808802813</v>
+        <v>0.02578354059437169</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1193264023.210144</v>
+        <v>1596180521.555938</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1118472894787775</v>
+        <v>0.1454268026654485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05492443350254194</v>
+        <v>0.05007001061941851</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2015219330.576664</v>
+        <v>2559302331.066116</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1388429101742092</v>
+        <v>0.1248379856841415</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03528464513846685</v>
+        <v>0.03535716351157311</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3215944048.678603</v>
+        <v>3538189126.031653</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09812904744927296</v>
+        <v>0.08069147166011488</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04195976019006611</v>
+        <v>0.04372285810296637</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1874196653.657606</v>
+        <v>1955401531.099354</v>
       </c>
       <c r="F43" t="n">
-        <v>0.12483157544512</v>
+        <v>0.1253916481774438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01651879750837849</v>
+        <v>0.02342072175674578</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2035108497.000901</v>
+        <v>1913944291.953161</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09577640078412963</v>
+        <v>0.06371922176341573</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03148549839974602</v>
+        <v>0.03472604134508243</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1961694835.123758</v>
+        <v>1844607827.666441</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1309161861613729</v>
+        <v>0.1935261095989514</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03823049511672397</v>
+        <v>0.03826607999872798</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4291621423.907261</v>
+        <v>4434908059.481107</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1572212129729575</v>
+        <v>0.1193483544332252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06130509890119445</v>
+        <v>0.04281247187295047</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3315623612.238266</v>
+        <v>3667476263.007671</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1312048550904172</v>
+        <v>0.1513258297729535</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05195666222732879</v>
+        <v>0.04987966032366589</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3662788692.335466</v>
+        <v>4237466349.36677</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08953984188388524</v>
+        <v>0.1072012240723764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03002483726677318</v>
+        <v>0.02861657303025868</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1294304277.465017</v>
+        <v>1553297819.80915</v>
       </c>
       <c r="F49" t="n">
-        <v>0.191722273258576</v>
+        <v>0.1481833615399652</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03069566881170131</v>
+        <v>0.04086870426579126</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3503514633.616434</v>
+        <v>3242283505.672422</v>
       </c>
       <c r="F50" t="n">
-        <v>0.155246721033053</v>
+        <v>0.1207475281952839</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05263539207250224</v>
+        <v>0.03502065159538801</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1153650630.046621</v>
+        <v>1110925235.157685</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1584252453179753</v>
+        <v>0.1378961552925608</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04192521642171585</v>
+        <v>0.03566681726246093</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3829491023.660493</v>
+        <v>4063093764.057004</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1264414058234687</v>
+        <v>0.1271180359785033</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05629399433330037</v>
+        <v>0.04125440087066073</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2975113005.358496</v>
+        <v>3790359658.240314</v>
       </c>
       <c r="F53" t="n">
-        <v>0.146887788022605</v>
+        <v>0.1990062366241394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02477324313406222</v>
+        <v>0.03528166348666516</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3939643265.873337</v>
+        <v>4104412773.92327</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1514724236954834</v>
+        <v>0.1154624143434899</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0453281557224688</v>
+        <v>0.03330028262098499</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4950201381.316301</v>
+        <v>3789435876.159153</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1357133743722562</v>
+        <v>0.1930508645831212</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03053949021364548</v>
+        <v>0.02319190295551668</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1518798808.570857</v>
+        <v>1687208308.782912</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1058451763265395</v>
+        <v>0.1366525712226152</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03864501493782744</v>
+        <v>0.05070420500724837</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3575728095.746516</v>
+        <v>4388293175.606777</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1379542870815767</v>
+        <v>0.1741673849447878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0174544950738573</v>
+        <v>0.01850003284788996</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1363126878.737131</v>
+        <v>1904289036.180245</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1798566836957524</v>
+        <v>0.1611283494095718</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03341312777513319</v>
+        <v>0.02551058763824928</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4259281583.537816</v>
+        <v>5301661347.107554</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1108108015813856</v>
+        <v>0.1248776370464999</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03192026868516579</v>
+        <v>0.03148236660500642</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2385748698.207354</v>
+        <v>3406758037.042236</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1851433659267662</v>
+        <v>0.2064405779347977</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02845689915524563</v>
+        <v>0.02712211697639086</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2295757618.930046</v>
+        <v>2073815842.656122</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1708842450815008</v>
+        <v>0.1141726397432734</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02545921506079314</v>
+        <v>0.02670936803380369</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1976281755.377345</v>
+        <v>1798904903.763921</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1312123732783833</v>
+        <v>0.1363526919807424</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04811730295766211</v>
+        <v>0.03850530237039451</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5152678845.043724</v>
+        <v>4263179155.230586</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07436535355215719</v>
+        <v>0.07627236509746659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04173218237465781</v>
+        <v>0.03889013422548315</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4211638165.839053</v>
+        <v>4545499440.812625</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1901082698064183</v>
+        <v>0.1314488013679214</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03276689413464179</v>
+        <v>0.02441067016959678</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4684709691.900882</v>
+        <v>3737086911.399208</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1300312523974392</v>
+        <v>0.12869072525973</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02149638848404404</v>
+        <v>0.02631194252487622</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3588349299.214338</v>
+        <v>3836310959.378185</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1177668499480087</v>
+        <v>0.1213734404600589</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03824826018172358</v>
+        <v>0.03114681353969246</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3162475603.910892</v>
+        <v>3252775475.12353</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07935497372607493</v>
+        <v>0.08698686387057084</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05071443215095489</v>
+        <v>0.04069911435833087</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4210413659.098049</v>
+        <v>4922038298.452549</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1030125939945788</v>
+        <v>0.1223292126317436</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04873263501949031</v>
+        <v>0.03977697934110926</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2212610217.623976</v>
+        <v>1825704753.854796</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1421736258661246</v>
+        <v>0.1348478317151571</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04101698400698167</v>
+        <v>0.04880759173983022</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3184043749.513109</v>
+        <v>3708753745.944847</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0838698746002441</v>
+        <v>0.09572940116684461</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03472903460767553</v>
+        <v>0.03621739323000015</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3543166895.472094</v>
+        <v>3935430523.001144</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1121348140179116</v>
+        <v>0.1732726791161159</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03192768279383895</v>
+        <v>0.0256088531019905</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1693285899.57831</v>
+        <v>1485602445.163686</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1023054542604529</v>
+        <v>0.06615584598919741</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05195663840059148</v>
+        <v>0.04042871558108416</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2406897225.23843</v>
+        <v>2641529646.729168</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08699570744325173</v>
+        <v>0.07346825343217031</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05045339801816429</v>
+        <v>0.04989089646433559</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2851024135.087997</v>
+        <v>3672303110.011184</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1366309742744178</v>
+        <v>0.1282701340661103</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03231062726331422</v>
+        <v>0.02608121737566156</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1890382594.633133</v>
+        <v>2388132976.91051</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1182018243744049</v>
+        <v>0.1658360210403538</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03367263199131761</v>
+        <v>0.02861230684016916</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4028705609.830974</v>
+        <v>4942213697.857348</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1055783866372137</v>
+        <v>0.1058195470879473</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02519169709350269</v>
+        <v>0.02363816811249079</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1752502832.496253</v>
+        <v>2230618038.660779</v>
       </c>
       <c r="F77" t="n">
-        <v>0.136107253346809</v>
+        <v>0.1136716184299283</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0303469989782132</v>
+        <v>0.01980929222001246</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3515970758.381747</v>
+        <v>2935328713.768812</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1007727882991343</v>
+        <v>0.1282012466622479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03820160810841964</v>
+        <v>0.04430846919014059</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1863169168.854784</v>
+        <v>1261120566.063784</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1628582857318845</v>
+        <v>0.1519447362402012</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0362546064160672</v>
+        <v>0.02897353099218728</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3465553693.479747</v>
+        <v>5287353636.26253</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08301369799465737</v>
+        <v>0.07746015332466831</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02456196329610573</v>
+        <v>0.03663419912665789</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4419233237.989552</v>
+        <v>4302658737.722756</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255680782477844</v>
+        <v>0.1018345071573315</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02674283499841881</v>
+        <v>0.0325917309701993</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3828000613.772533</v>
+        <v>4535536354.496679</v>
       </c>
       <c r="F82" t="n">
-        <v>0.212139130669159</v>
+        <v>0.1415188146911424</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02047432520575375</v>
+        <v>0.02856194417996237</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1884655643.791529</v>
+        <v>1815681516.994264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09792526278892744</v>
+        <v>0.1323322032120175</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03254028039910695</v>
+        <v>0.02806466638798763</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2381221587.038894</v>
+        <v>1872829914.837659</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08440307810496228</v>
+        <v>0.1034873840724657</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03852700735265868</v>
+        <v>0.05183926529211418</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2751620568.46827</v>
+        <v>3391931398.854089</v>
       </c>
       <c r="F85" t="n">
-        <v>0.136597655514517</v>
+        <v>0.1779353053009271</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04559254823961392</v>
+        <v>0.04958486595790794</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2076777544.009919</v>
+        <v>2296245145.421412</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1153403858726144</v>
+        <v>0.1169242220609566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01706741526251651</v>
+        <v>0.02122763772489923</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1465360451.904106</v>
+        <v>1503094053.304741</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830282495967401</v>
+        <v>0.1600413493964621</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03885743337836491</v>
+        <v>0.02924021248007889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2411346630.024555</v>
+        <v>3432969481.680386</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1209245984519082</v>
+        <v>0.1573043590455635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03680473410972625</v>
+        <v>0.03763482603456656</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2341494695.582271</v>
+        <v>2216524164.157206</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1222656692800897</v>
+        <v>0.1599212283107312</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04061556241846884</v>
+        <v>0.0397056141124195</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1959130450.763886</v>
+        <v>1672708553.473454</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0922119471608033</v>
+        <v>0.1313461933152138</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03561032968907146</v>
+        <v>0.03951695149514128</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1426542856.239791</v>
+        <v>1655648825.877047</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1237249487890872</v>
+        <v>0.1585723430160569</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05783097747358903</v>
+        <v>0.05953510584533123</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2084540058.599694</v>
+        <v>2995305039.960841</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06942059533365054</v>
+        <v>0.0721090565562479</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04752424570744354</v>
+        <v>0.04350388047285177</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4195483272.513156</v>
+        <v>4995684706.101479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09155541725477855</v>
+        <v>0.1260180228303718</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05428015406591696</v>
+        <v>0.05155736215580797</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1982138231.629683</v>
+        <v>2163381010.1798</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1662181902485504</v>
+        <v>0.1105864191431733</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03140644381399957</v>
+        <v>0.02729595484067904</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2002475819.778648</v>
+        <v>2974004027.117838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09809860306653544</v>
+        <v>0.1236710287182479</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03508505503317956</v>
+        <v>0.04173490873149762</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1767088726.310097</v>
+        <v>1919307764.222111</v>
       </c>
       <c r="F96" t="n">
-        <v>0.124001100041914</v>
+        <v>0.09183972262367891</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03374096351198221</v>
+        <v>0.02883958630542004</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4144985630.119754</v>
+        <v>5312871374.374486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204646026652575</v>
+        <v>0.1541503079843566</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02140469317659183</v>
+        <v>0.02754404356780797</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3664763625.486153</v>
+        <v>2402903407.326368</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1190007039964605</v>
+        <v>0.09490072194842765</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02013932899895922</v>
+        <v>0.02862969760913147</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2940584631.418209</v>
+        <v>2069152334.399876</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1067080279323603</v>
+        <v>0.1257224764921107</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03199739085079127</v>
+        <v>0.03303042844168192</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4109958868.670143</v>
+        <v>4038927695.318297</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1414651569678182</v>
+        <v>0.1579125055822777</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02580245822244834</v>
+        <v>0.02070719007816852</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3321940852.635389</v>
+        <v>2212592461.33394</v>
       </c>
       <c r="F101" t="n">
-        <v>0.190126550432091</v>
+        <v>0.2116020036859103</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04908013488670702</v>
+        <v>0.03856219933459807</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_369.xlsx
+++ b/output/fit_clients/fit_round_369.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2414169145.968634</v>
+        <v>2285248637.869014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07221497669716655</v>
+        <v>0.1069364094888325</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04354499043062748</v>
+        <v>0.04123685071932319</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2267939832.157712</v>
+        <v>2407631451.876667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1519239886950641</v>
+        <v>0.1769362596137544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03297487584090204</v>
+        <v>0.04264500275789059</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3543297018.381761</v>
+        <v>3153534705.694637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.111449552900373</v>
+        <v>0.1534583024254693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02880948202876027</v>
+        <v>0.0297035816812636</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>190</v>
+      </c>
+      <c r="J4" t="n">
+        <v>368</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.57656168642635</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3535608757.994667</v>
+        <v>3156500469.703477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08008207663321679</v>
+        <v>0.0875123295778983</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03874087920816148</v>
+        <v>0.04577344235014677</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>149</v>
+      </c>
+      <c r="J5" t="n">
+        <v>367</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2807868841.255666</v>
+        <v>2625122537.397838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1074624429384803</v>
+        <v>0.1151063832255056</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04002127877685663</v>
+        <v>0.05265565872673132</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2890013577.054323</v>
+        <v>1969400848.078796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0811169320916547</v>
+        <v>0.08365862106033196</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03924806499734452</v>
+        <v>0.0371398102017618</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3267540191.474187</v>
+        <v>2841908820.414947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1974389815745364</v>
+        <v>0.1817561729648443</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03001976023576199</v>
+        <v>0.03109061784872803</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>367</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1867182452.429199</v>
+        <v>2099714321.951369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1376588430447374</v>
+        <v>0.1732943369809624</v>
       </c>
       <c r="G9" t="n">
-        <v>0.026012224693695</v>
+        <v>0.03429316980359286</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3757776901.294284</v>
+        <v>4717531006.70219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.207171716061589</v>
+        <v>0.1965985376010309</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04986458045088644</v>
+        <v>0.03282605494540446</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>306</v>
+      </c>
+      <c r="J10" t="n">
+        <v>369</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.53439968654704</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3866942710.057903</v>
+        <v>3418748262.483288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1447477254312557</v>
+        <v>0.1346916155303333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0389184062087353</v>
+        <v>0.04324042942680002</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>369</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2834309367.20478</v>
+        <v>2830836835.856181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769138871928778</v>
+        <v>0.1923913161623054</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04599612277427342</v>
+        <v>0.05052058965352321</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4534303904.600588</v>
+        <v>3477836517.291538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07080759341828836</v>
+        <v>0.09455745455287665</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02473102149286293</v>
+        <v>0.02736015059654313</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>192</v>
+      </c>
+      <c r="J13" t="n">
+        <v>368</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.85727959317796</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2995060631.303082</v>
+        <v>3565740702.449239</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1798115786090015</v>
+        <v>0.1408085464813019</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0411820834666328</v>
+        <v>0.03187363744852213</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>369</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1516797443.268907</v>
+        <v>1406370265.676716</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09658543734005123</v>
+        <v>0.08190428062965532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03642267899145985</v>
+        <v>0.03074856985324065</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2661572512.697015</v>
+        <v>2396572069.038956</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07416375904363141</v>
+        <v>0.09737153389071182</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04311808247337327</v>
+        <v>0.04804983792360185</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3875091274.135001</v>
+        <v>3565221969.984806</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1274789220584308</v>
+        <v>0.1245155354757793</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05135271882203342</v>
+        <v>0.03891526998621553</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>174</v>
+      </c>
+      <c r="J17" t="n">
+        <v>368</v>
+      </c>
+      <c r="K17" t="n">
+        <v>45.03171899645812</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2996927581.024078</v>
+        <v>3342403788.864714</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1710237764489301</v>
+        <v>0.1838081647468478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02718066427916434</v>
+        <v>0.02998609466700125</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>90</v>
+      </c>
+      <c r="J18" t="n">
+        <v>369</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1279499415.080278</v>
+        <v>1375560920.296622</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1232178996042592</v>
+        <v>0.1502115572164413</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02612655849383523</v>
+        <v>0.01824327948423995</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2727367848.202495</v>
+        <v>2103958839.68433</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0974519272537933</v>
+        <v>0.1322987450713193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02585540028885593</v>
+        <v>0.02122753650110392</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2193529474.486067</v>
+        <v>1762626274.400686</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08693215440775648</v>
+        <v>0.06832665229833032</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04212273113878493</v>
+        <v>0.0323257407137849</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3667280011.048167</v>
+        <v>3843736778.629149</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1128331564858926</v>
+        <v>0.09065060926215797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03707345067644555</v>
+        <v>0.04550949882885442</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>103</v>
+      </c>
+      <c r="J22" t="n">
+        <v>369</v>
+      </c>
+      <c r="K22" t="n">
+        <v>58.53498750766204</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1214144300.956289</v>
+        <v>1523122463.105838</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1789639136962128</v>
+        <v>0.1135141849130729</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05011908435858936</v>
+        <v>0.05248334004037804</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2550873934.07898</v>
+        <v>3896480503.54412</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1167459879421807</v>
+        <v>0.1426361347798381</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02618001959274015</v>
+        <v>0.03525732852888019</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>113</v>
+      </c>
+      <c r="J24" t="n">
+        <v>369</v>
+      </c>
+      <c r="K24" t="n">
+        <v>58.71470352237102</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1236123598.257837</v>
+        <v>1306629730.347694</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07491225182479089</v>
+        <v>0.1157762341880836</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02447230657221868</v>
+        <v>0.03035636610078872</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>983464272.9115855</v>
+        <v>1372400599.906276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1159554169518599</v>
+        <v>0.1028637943180333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02600706718085546</v>
+        <v>0.02568338595329845</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3559595895.700003</v>
+        <v>4117966009.872498</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1476779085332203</v>
+        <v>0.1367766205149336</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02665889336855893</v>
+        <v>0.02407343271312386</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>154</v>
+      </c>
+      <c r="J27" t="n">
+        <v>369</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3051544104.382631</v>
+        <v>3019890943.748131</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1362875010102819</v>
+        <v>0.1331610776127302</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03170067180146644</v>
+        <v>0.04748626803905973</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3894589539.351131</v>
+        <v>5426878720.656644</v>
       </c>
       <c r="F29" t="n">
-        <v>0.147974462499225</v>
+        <v>0.1441400320284866</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02909488087857699</v>
+        <v>0.04312128276574231</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>323</v>
+      </c>
+      <c r="J29" t="n">
+        <v>368</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56.50993967140813</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1528933262.446362</v>
+        <v>1848365215.233358</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1052560578601491</v>
+        <v>0.08542921920775533</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03630222753037016</v>
+        <v>0.02807327138126476</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1460192465.712483</v>
+        <v>1222241568.381231</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09467263303246662</v>
+        <v>0.07401973886469504</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04392919610751256</v>
+        <v>0.04621356585313356</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1159148632.023727</v>
+        <v>1809513463.675455</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07805718575375263</v>
+        <v>0.08122788986543585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02523587356982238</v>
+        <v>0.02678454034086421</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1893949851.848851</v>
+        <v>2503098800.660133</v>
       </c>
       <c r="F33" t="n">
-        <v>0.139279540376613</v>
+        <v>0.1274702116651817</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03736334136150913</v>
+        <v>0.04731383791630045</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1263068384.269417</v>
+        <v>1342700467.741822</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08500884179399749</v>
+        <v>0.1038427010042295</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01912488021332743</v>
+        <v>0.01881435284304625</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>848954969.7412057</v>
+        <v>1284343425.065085</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09571633862394752</v>
+        <v>0.1114278315210076</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02924286045289966</v>
+        <v>0.03803978941469113</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1967586750.121045</v>
+        <v>2819884832.375724</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1105386092341602</v>
+        <v>0.1455564949381043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0212906028967629</v>
+        <v>0.02304818812084206</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2483556082.856688</v>
+        <v>2461843329.174946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1092056290253645</v>
+        <v>0.07501265414998247</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03945072119973777</v>
+        <v>0.04063391103363442</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2123962373.415092</v>
+        <v>1990209842.236665</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1113935809854705</v>
+        <v>0.08623473438759137</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03293702378113218</v>
+        <v>0.0364258064138853</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1572610440.043814</v>
+        <v>2093547263.678328</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1633691814443554</v>
+        <v>0.1517571175632763</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02578354059437169</v>
+        <v>0.0226941632497427</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596180521.555938</v>
+        <v>1540068181.160898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1454268026654485</v>
+        <v>0.122199907189892</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05007001061941851</v>
+        <v>0.04369951204100179</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2559302331.066116</v>
+        <v>2696894039.049043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1248379856841415</v>
+        <v>0.120793500725271</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03535716351157311</v>
+        <v>0.03572303548811401</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3538189126.031653</v>
+        <v>2962412707.781717</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08069147166011488</v>
+        <v>0.1178044979157259</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04372285810296637</v>
+        <v>0.04339157180210256</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1955401531.099354</v>
+        <v>2799388014.956043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1253916481774438</v>
+        <v>0.1831490727847966</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02342072175674578</v>
+        <v>0.0244005412142618</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1913944291.953161</v>
+        <v>1670008182.820851</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06371922176341573</v>
+        <v>0.09845948690710764</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03472604134508243</v>
+        <v>0.03091153468617795</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1844607827.666441</v>
+        <v>1811205841.813256</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1935261095989514</v>
+        <v>0.1568480120432473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03826607999872798</v>
+        <v>0.04374465392496749</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4434908059.481107</v>
+        <v>4934225046.162677</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1193483544332252</v>
+        <v>0.174231424911089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04281247187295047</v>
+        <v>0.05768624282521779</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>221</v>
+      </c>
+      <c r="J46" t="n">
+        <v>368</v>
+      </c>
+      <c r="K46" t="n">
+        <v>57.30947989973014</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3667476263.007671</v>
+        <v>5154362127.418914</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1513258297729535</v>
+        <v>0.1937752238120002</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04987966032366589</v>
+        <v>0.05160513511235887</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>165</v>
+      </c>
+      <c r="J47" t="n">
+        <v>368</v>
+      </c>
+      <c r="K47" t="n">
+        <v>52.4579446847484</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2129,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4237466349.36677</v>
+        <v>4206213521.597236</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1072012240723764</v>
+        <v>0.10753434956139</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02861657303025868</v>
+        <v>0.02950688758758543</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>190</v>
+      </c>
+      <c r="J48" t="n">
+        <v>369</v>
+      </c>
+      <c r="K48" t="n">
+        <v>58.33855241043128</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1553297819.80915</v>
+        <v>1210106899.103692</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1481833615399652</v>
+        <v>0.1311071629013811</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04086870426579126</v>
+        <v>0.03654647841124913</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3242283505.672422</v>
+        <v>3200850511.812805</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1207475281952839</v>
+        <v>0.1162777649239899</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03502065159538801</v>
+        <v>0.05177544174436255</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>124</v>
+      </c>
+      <c r="J50" t="n">
+        <v>368</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.77386408368773</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1110925235.157685</v>
+        <v>1391970439.191439</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1378961552925608</v>
+        <v>0.1265479384674944</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03566681726246093</v>
+        <v>0.03482731253727713</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4063093764.057004</v>
+        <v>5020460201.507529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1271180359785033</v>
+        <v>0.1266886645641925</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04125440087066073</v>
+        <v>0.0405413084603428</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>217</v>
+      </c>
+      <c r="J52" t="n">
+        <v>369</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3790359658.240314</v>
+        <v>2467995346.567659</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1990062366241394</v>
+        <v>0.1943484612670182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03528166348666516</v>
+        <v>0.0246210478976335</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4104412773.92327</v>
+        <v>4328794688.401903</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1154624143434899</v>
+        <v>0.1265661501793938</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03330028262098499</v>
+        <v>0.04589021630053085</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>196</v>
+      </c>
+      <c r="J54" t="n">
+        <v>368</v>
+      </c>
+      <c r="K54" t="n">
+        <v>57.37012988061488</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3789435876.159153</v>
+        <v>4855894585.678767</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1930508645831212</v>
+        <v>0.1797355429647789</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02319190295551668</v>
+        <v>0.02515045854148223</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>176</v>
+      </c>
+      <c r="J55" t="n">
+        <v>369</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1687208308.782912</v>
+        <v>1141382949.699924</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1366525712226152</v>
+        <v>0.1259772347379211</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05070420500724837</v>
+        <v>0.0351158933827622</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4388293175.606777</v>
+        <v>3410675442.394731</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1741673849447878</v>
+        <v>0.1748125636674903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01850003284788996</v>
+        <v>0.01698270575562848</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>153</v>
+      </c>
+      <c r="J57" t="n">
+        <v>369</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1904289036.180245</v>
+        <v>1511073093.050533</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1611283494095718</v>
+        <v>0.1703677019380294</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02551058763824928</v>
+        <v>0.03580002791912524</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5301661347.107554</v>
+        <v>5257574473.147755</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1248776370464999</v>
+        <v>0.08119683901392882</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03148236660500642</v>
+        <v>0.04268384986468016</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>180</v>
+      </c>
+      <c r="J59" t="n">
+        <v>368</v>
+      </c>
+      <c r="K59" t="n">
+        <v>57.48037605464058</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3406758037.042236</v>
+        <v>2295015969.925463</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064405779347977</v>
+        <v>0.1671571017022864</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02712211697639086</v>
+        <v>0.02216312320651883</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>367</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2073815842.656122</v>
+        <v>2396564193.455232</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1141726397432734</v>
+        <v>0.1693313405015832</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02670936803380369</v>
+        <v>0.02237702646790959</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1798904903.763921</v>
+        <v>1489819244.428011</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1363526919807424</v>
+        <v>0.1279389802186538</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03850530237039451</v>
+        <v>0.04872671999088015</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4263179155.230586</v>
+        <v>4887022408.926633</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07627236509746659</v>
+        <v>0.08576554981034086</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03889013422548315</v>
+        <v>0.03569027567465167</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>181</v>
+      </c>
+      <c r="J63" t="n">
+        <v>369</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4545499440.812625</v>
+        <v>4757027074.356642</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1314488013679214</v>
+        <v>0.168684420843154</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02441067016959678</v>
+        <v>0.03483284163867014</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>183</v>
+      </c>
+      <c r="J64" t="n">
+        <v>369</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3737086911.399208</v>
+        <v>4477173679.414469</v>
       </c>
       <c r="F65" t="n">
-        <v>0.12869072525973</v>
+        <v>0.1190567717277091</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02631194252487622</v>
+        <v>0.02232605145794773</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>279</v>
+      </c>
+      <c r="J65" t="n">
+        <v>369</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3836310959.378185</v>
+        <v>3990946558.358472</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1213734404600589</v>
+        <v>0.1614368127697398</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03114681353969246</v>
+        <v>0.04448511650943728</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>182</v>
+      </c>
+      <c r="J66" t="n">
+        <v>369</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3252775475.12353</v>
+        <v>2638438299.766242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08698686387057084</v>
+        <v>0.07549697702530286</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04069911435833087</v>
+        <v>0.03289964540152165</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4922038298.452549</v>
+        <v>5676448162.368101</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1223292126317436</v>
+        <v>0.134640106369249</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03977697934110926</v>
+        <v>0.03915835988503876</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>200</v>
+      </c>
+      <c r="J68" t="n">
+        <v>369</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1825704753.854796</v>
+        <v>2216883136.698364</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1348478317151571</v>
+        <v>0.166103550105906</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04880759173983022</v>
+        <v>0.05820268739619504</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708753745.944847</v>
+        <v>2278939165.485422</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09572940116684461</v>
+        <v>0.0884494403404506</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03621739323000015</v>
+        <v>0.03060549477685541</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3935430523.001144</v>
+        <v>4220554706.190374</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1732726791161159</v>
+        <v>0.1620054045023285</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0256088531019905</v>
+        <v>0.02917556983982662</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>266</v>
+      </c>
+      <c r="J71" t="n">
+        <v>368</v>
+      </c>
+      <c r="K71" t="n">
+        <v>56.36621761508606</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1485602445.163686</v>
+        <v>1402741875.59833</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06615584598919741</v>
+        <v>0.10632916683501</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04042871558108416</v>
+        <v>0.04659965781632963</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2641529646.729168</v>
+        <v>3217170529.137718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07346825343217031</v>
+        <v>0.110327904765749</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04989089646433559</v>
+        <v>0.04738436874141425</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3672303110.011184</v>
+        <v>3992059542.820146</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1282701340661103</v>
+        <v>0.1672788206350734</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02608121737566156</v>
+        <v>0.02242380685138259</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>105</v>
+      </c>
+      <c r="J74" t="n">
+        <v>369</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2388132976.91051</v>
+        <v>1868331557.635485</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1658360210403538</v>
+        <v>0.1142856982164521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02861230684016916</v>
+        <v>0.02369913645560869</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4942213697.857348</v>
+        <v>4085685553.254478</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1058195470879473</v>
+        <v>0.08376569233199749</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02363816811249079</v>
+        <v>0.02269111315899658</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>175</v>
+      </c>
+      <c r="J76" t="n">
+        <v>368</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57.63283362337552</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2230618038.660779</v>
+        <v>2084809557.414397</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1136716184299283</v>
+        <v>0.1869361943005351</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01980929222001246</v>
+        <v>0.02132341728151674</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2935328713.768812</v>
+        <v>4193475015.019772</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1282012466622479</v>
+        <v>0.1158504026378308</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04430846919014059</v>
+        <v>0.04074044873874449</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>184</v>
+      </c>
+      <c r="J78" t="n">
+        <v>369</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1261120566.063784</v>
+        <v>1323102897.584337</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1519447362402012</v>
+        <v>0.1745457595704069</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02897353099218728</v>
+        <v>0.03795814727906206</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5287353636.26253</v>
+        <v>3860756357.244156</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07746015332466831</v>
+        <v>0.08520431400484282</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03663419912665789</v>
+        <v>0.03813937561740786</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>180</v>
+      </c>
+      <c r="J80" t="n">
+        <v>368</v>
+      </c>
+      <c r="K80" t="n">
+        <v>40.08344961039518</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4302658737.722756</v>
+        <v>4535009622.216137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1018345071573315</v>
+        <v>0.1273601770204621</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0325917309701993</v>
+        <v>0.03217070982699254</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>171</v>
+      </c>
+      <c r="J81" t="n">
+        <v>368</v>
+      </c>
+      <c r="K81" t="n">
+        <v>53.96076448370356</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4535536354.496679</v>
+        <v>5395638845.692861</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1415188146911424</v>
+        <v>0.2088544086445661</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02856194417996237</v>
+        <v>0.02889034660159851</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>257</v>
+      </c>
+      <c r="J82" t="n">
+        <v>369</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1815681516.994264</v>
+        <v>2201837470.405692</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1323322032120175</v>
+        <v>0.1401061880627989</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02806466638798763</v>
+        <v>0.04061804803602943</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1872829914.837659</v>
+        <v>2434513116.626874</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1034873840724657</v>
+        <v>0.08742616047468434</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05183926529211418</v>
+        <v>0.04482553312679675</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3391931398.854089</v>
+        <v>2602994175.648801</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1779353053009271</v>
+        <v>0.1180357360084262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04958486595790794</v>
+        <v>0.05044310320354525</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2296245145.421412</v>
+        <v>1917302169.648126</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1169242220609566</v>
+        <v>0.1485847720800761</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02122763772489923</v>
+        <v>0.02444662268318421</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1503094053.304741</v>
+        <v>1355551583.844899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1600413493964621</v>
+        <v>0.1761428965636901</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02924021248007889</v>
+        <v>0.03205321838566399</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3432969481.680386</v>
+        <v>3140737485.120427</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1573043590455635</v>
+        <v>0.1449122894881672</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03763482603456656</v>
+        <v>0.02824913250722234</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2216524164.157206</v>
+        <v>2382913352.380789</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1599212283107312</v>
+        <v>0.1430715952799819</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0397056141124195</v>
+        <v>0.03855888815470444</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1672708553.473454</v>
+        <v>2152280180.644928</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313461933152138</v>
+        <v>0.09520512345653313</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03951695149514128</v>
+        <v>0.04440940014380675</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1655648825.877047</v>
+        <v>1754344856.128845</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1585723430160569</v>
+        <v>0.1848507608210605</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05953510584533123</v>
+        <v>0.0545423782757155</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2995305039.960841</v>
+        <v>2461315816.296278</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0721090565562479</v>
+        <v>0.08592955412444744</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04350388047285177</v>
+        <v>0.04099090181342872</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4995684706.101479</v>
+        <v>4395791822.561404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1260180228303718</v>
+        <v>0.1408562018981299</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05155736215580797</v>
+        <v>0.0331095769935566</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>172</v>
+      </c>
+      <c r="J93" t="n">
+        <v>369</v>
+      </c>
+      <c r="K93" t="n">
+        <v>59.88052758314065</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2163381010.1798</v>
+        <v>1586810872.752687</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1105864191431733</v>
+        <v>0.1130181080395841</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02729595484067904</v>
+        <v>0.02653004991213704</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2974004027.117838</v>
+        <v>2377346997.364823</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1236710287182479</v>
+        <v>0.1297234131482069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04173490873149762</v>
+        <v>0.04048449486865788</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1919307764.222111</v>
+        <v>2032431427.591521</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09183972262367891</v>
+        <v>0.1156605894436717</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02883958630542004</v>
+        <v>0.04057743112891246</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5312871374.374486</v>
+        <v>3597714240.527628</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1541503079843566</v>
+        <v>0.1772886171228789</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02754404356780797</v>
+        <v>0.02203418920085915</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>191</v>
+      </c>
+      <c r="J97" t="n">
+        <v>368</v>
+      </c>
+      <c r="K97" t="n">
+        <v>45.12903290527851</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2402903407.326368</v>
+        <v>2766561138.684122</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09490072194842765</v>
+        <v>0.1151286541960554</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02862969760913147</v>
+        <v>0.02212337225419903</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>92</v>
+      </c>
+      <c r="J98" t="n">
+        <v>367</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2069152334.399876</v>
+        <v>2539609993.508568</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1257224764921107</v>
+        <v>0.1457099529636344</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03303042844168192</v>
+        <v>0.02918594027880218</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4038927695.318297</v>
+        <v>3501325815.042118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1579125055822777</v>
+        <v>0.1342660797732527</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02070719007816852</v>
+        <v>0.02074523518798179</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>168</v>
+      </c>
+      <c r="J100" t="n">
+        <v>368</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42.41772850544625</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2212592461.33394</v>
+        <v>2646234995.469512</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2116020036859103</v>
+        <v>0.2005902130786502</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03856219933459807</v>
+        <v>0.04315372395009653</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
